--- a/data/trans_orig/P74-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{834B5000-E891-4D13-B733-B416D56A2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A2664D-2379-466C-9504-010C82827EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F374AE38-36E6-420D-B746-2A308E1A966E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5544F69D-059F-4735-BBBA-43377D4169DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="731">
   <si>
     <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -94,2164 +94,2143 @@
     <t>1,36%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Estudios universitarios de grado medio</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Estudios de FP II</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>Estudios de FP I</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>EGB completa (8º) o similar (bachiller elemental), ESO y Estudios Secundarios (BUP,B.Superior)</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>Estudios primarios (hasta 5º EGB, ingreso)</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>No ha estudiado pero sabe leer y escribir</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>No sabe leer o escribir</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2012 (Tasa respuesta: 62,89%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Estudios universitarios de grado medio</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2015 (Tasa respuesta: 60,21%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Estudios de FP II</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Estudios de FP I</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>EGB completa (8º) o similar (bachiller elemental), ESO y Estudios Secundarios (BUP,B.Superior)</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>Estudios primarios (hasta 5º EGB, ingreso)</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>No ha estudiado pero sabe leer y escribir</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>No sabe leer o escribir</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2012 (Tasa respuesta: 62,89%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2015 (Tasa respuesta: 60,21%)</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ACAECE-4767-44B1-9E34-1A1A91BACF39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF712DD8-4E44-4951-9E71-DD65EEAE723A}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2994,10 +2973,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3006,13 +2985,13 @@
         <v>12912</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -3021,19 +3000,19 @@
         <v>27622</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>107</v>
@@ -3042,13 +3021,13 @@
         <v>108743</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>154</v>
@@ -3057,13 +3036,13 @@
         <v>154787</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>261</v>
@@ -3072,19 +3051,19 @@
         <v>263530</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>345</v>
@@ -3093,13 +3072,13 @@
         <v>341904</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>385</v>
@@ -3108,13 +3087,13 @@
         <v>388378</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>730</v>
@@ -3123,19 +3102,19 @@
         <v>730282</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7">
         <v>222</v>
@@ -3144,13 +3123,13 @@
         <v>211869</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>205</v>
@@ -3159,7 +3138,7 @@
         <v>207773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>80</v>
@@ -3401,13 +3380,13 @@
         <v>46393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3419,10 +3398,10 @@
         <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -3431,13 +3410,13 @@
         <v>97039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3431,13 @@
         <v>85587</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -3467,13 +3446,13 @@
         <v>118728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -3482,13 +3461,13 @@
         <v>204315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3482,13 @@
         <v>79072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -3518,10 +3497,10 @@
         <v>53099</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>130</v>
@@ -3533,34 +3512,34 @@
         <v>132171</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7">
         <v>583</v>
       </c>
       <c r="D19" s="7">
-        <v>606510</v>
+        <v>606509</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>579</v>
@@ -3569,13 +3548,13 @@
         <v>606607</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>1162</v>
@@ -3584,19 +3563,19 @@
         <v>1213117</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7">
         <v>153</v>
@@ -3605,13 +3584,13 @@
         <v>152844</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -3620,13 +3599,13 @@
         <v>100642</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -3635,19 +3614,19 @@
         <v>253486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7">
         <v>18</v>
@@ -3656,13 +3635,13 @@
         <v>19616</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -3671,13 +3650,13 @@
         <v>18395</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3686,10 +3665,10 @@
         <v>38011</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>157</v>
@@ -3707,10 +3686,10 @@
         <v>6123</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>159</v>
@@ -3725,10 +3704,10 @@
         <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -3737,13 +3716,13 @@
         <v>10117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3734,7 @@
         <v>999</v>
       </c>
       <c r="D23" s="7">
-        <v>1037479</v>
+        <v>1037478</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>95</v>
@@ -3799,7 +3778,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3817,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3832,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3841,13 +3820,13 @@
         <v>1151</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3841,13 @@
         <v>111284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -3877,13 +3856,13 @@
         <v>104787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>194</v>
@@ -3892,13 +3871,13 @@
         <v>216071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3892,13 @@
         <v>92754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3928,13 +3907,13 @@
         <v>52186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>142</v>
@@ -3943,13 +3922,13 @@
         <v>144941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3943,13 @@
         <v>35624</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -3979,13 +3958,13 @@
         <v>29504</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -3994,13 +3973,13 @@
         <v>65128</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3994,13 @@
         <v>9140</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4030,7 +4009,7 @@
         <v>9289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>199</v>
@@ -4057,7 +4036,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>92</v>
@@ -4108,7 +4087,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -4135,10 +4114,10 @@
         <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -4147,19 +4126,19 @@
         <v>26608</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -4174,7 +4153,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -4183,13 +4162,13 @@
         <v>2774</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4198,13 +4177,13 @@
         <v>4228</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4198,13 @@
         <v>909</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4240,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4249,13 +4228,13 @@
         <v>909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4338,13 +4317,13 @@
         <v>1151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4353,13 +4332,13 @@
         <v>1151</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4353,13 @@
         <v>162685</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -4389,13 +4368,13 @@
         <v>163447</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>297</v>
@@ -4404,13 +4383,13 @@
         <v>326132</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4404,13 @@
         <v>144866</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>111</v>
@@ -4440,13 +4419,13 @@
         <v>112033</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>253</v>
@@ -4455,13 +4434,13 @@
         <v>256899</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4455,13 @@
         <v>135369</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>166</v>
@@ -4491,13 +4470,13 @@
         <v>166172</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>296</v>
@@ -4506,13 +4485,13 @@
         <v>301541</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4506,13 @@
         <v>102922</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="H38" s="7">
         <v>75</v>
@@ -4542,13 +4521,13 @@
         <v>75300</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>175</v>
@@ -4557,19 +4536,19 @@
         <v>178222</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7">
         <v>782</v>
@@ -4578,13 +4557,13 @@
         <v>809933</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>806</v>
@@ -4593,13 +4572,13 @@
         <v>840039</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>1588</v>
@@ -4608,19 +4587,19 @@
         <v>1649972</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7">
         <v>514</v>
@@ -4629,13 +4608,13 @@
         <v>512343</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>488</v>
@@ -4644,13 +4623,13 @@
         <v>498033</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="M40" s="7">
         <v>1002</v>
@@ -4659,19 +4638,19 @@
         <v>1010376</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7">
         <v>241</v>
@@ -4680,13 +4659,13 @@
         <v>232939</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>226</v>
@@ -4695,13 +4674,13 @@
         <v>228942</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>467</v>
@@ -4710,13 +4689,13 @@
         <v>461881</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4710,13 @@
         <v>38772</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -4746,13 +4725,13 @@
         <v>26755</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -4764,10 +4743,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4802,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +4821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E96391-9AFE-4EE3-8BAA-4AD216CBD0C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7368EB12-B8C2-4F23-9E64-925F9927859F}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,7 +4838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4972,7 +4951,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5002,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +4996,13 @@
         <v>1896</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5032,13 +5011,13 @@
         <v>8995</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5047,13 +5026,13 @@
         <v>10891</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5047,13 @@
         <v>7205</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5083,13 +5062,13 @@
         <v>9181</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5098,13 +5077,13 @@
         <v>16385</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5098,13 @@
         <v>11272</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5134,13 +5113,13 @@
         <v>30025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5149,10 +5128,10 @@
         <v>41296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>320</v>
@@ -5173,10 +5152,10 @@
         <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5185,13 +5164,13 @@
         <v>14220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5200,19 +5179,19 @@
         <v>24368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>95</v>
@@ -5221,13 +5200,13 @@
         <v>101425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H9" s="7">
         <v>172</v>
@@ -5236,13 +5215,13 @@
         <v>182142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -5251,19 +5230,19 @@
         <v>283568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>269</v>
@@ -5272,13 +5251,13 @@
         <v>290189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>346</v>
@@ -5287,13 +5266,13 @@
         <v>368524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>615</v>
@@ -5302,19 +5281,19 @@
         <v>658713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7">
         <v>205</v>
@@ -5323,13 +5302,13 @@
         <v>218484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>195</v>
@@ -5338,13 +5317,13 @@
         <v>208584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>400</v>
@@ -5353,13 +5332,13 @@
         <v>427068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5353,13 @@
         <v>33909</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5389,7 +5368,7 @@
         <v>19011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>356</v>
@@ -5514,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,10 +5511,10 @@
         <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H15" s="7">
         <v>44</v>
@@ -5547,7 +5526,7 @@
         <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>364</v>
@@ -5562,10 +5541,10 @@
         <v>365</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5559,13 @@
         <v>81128</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5595,13 +5574,13 @@
         <v>55645</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -5610,13 +5589,13 @@
         <v>136773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5610,13 @@
         <v>112639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -5646,13 +5625,13 @@
         <v>113687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -5661,13 +5640,13 @@
         <v>226326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5661,13 @@
         <v>67581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -5697,13 +5676,13 @@
         <v>65633</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -5712,19 +5691,19 @@
         <v>133214</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7">
         <v>647</v>
@@ -5775,7 +5754,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7">
         <v>153</v>
@@ -5787,10 +5766,10 @@
         <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -5799,13 +5778,13 @@
         <v>131229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
@@ -5814,10 +5793,10 @@
         <v>304240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>406</v>
@@ -5826,7 +5805,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7">
         <v>29</v>
@@ -5835,13 +5814,13 @@
         <v>30880</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5850,13 +5829,13 @@
         <v>14282</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -5865,13 +5844,13 @@
         <v>45162</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>413</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5865,13 @@
         <v>6200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>30</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5901,13 +5880,13 @@
         <v>3918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5916,13 +5895,13 @@
         <v>10118</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,7 +5957,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5996,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6011,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6026,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6020,13 @@
         <v>90457</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -6056,13 +6035,13 @@
         <v>103308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -6071,13 +6050,13 @@
         <v>193765</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6071,13 @@
         <v>94483</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6107,13 +6086,13 @@
         <v>55787</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -6122,13 +6101,13 @@
         <v>150269</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,7 +6122,7 @@
         <v>21932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>436</v>
@@ -6173,13 +6152,13 @@
         <v>59298</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6173,13 @@
         <v>9197</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6209,13 +6188,13 @@
         <v>10707</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -6224,19 +6203,19 @@
         <v>19904</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>63</v>
@@ -6245,13 +6224,13 @@
         <v>74249</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -6260,13 +6239,13 @@
         <v>73411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -6275,19 +6254,19 @@
         <v>147659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -6296,13 +6275,13 @@
         <v>12456</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>461</v>
+        <v>221</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>462</v>
+        <v>43</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6311,13 +6290,13 @@
         <v>9356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -6326,19 +6305,19 @@
         <v>21811</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6353,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6362,13 +6341,13 @@
         <v>951</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6377,13 +6356,13 @@
         <v>951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>231</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6413,13 +6392,13 @@
         <v>1952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>24</v>
+        <v>465</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6428,13 +6407,13 @@
         <v>1952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>54</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6523,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6538,7 +6517,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6532,13 @@
         <v>134540</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H35" s="7">
         <v>142</v>
@@ -6568,13 +6547,13 @@
         <v>162403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>477</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>261</v>
@@ -6583,13 +6562,13 @@
         <v>296944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>479</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6583,13 @@
         <v>182816</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H36" s="7">
         <v>108</v>
@@ -6619,13 +6598,13 @@
         <v>120612</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M36" s="7">
         <v>273</v>
@@ -6634,13 +6613,13 @@
         <v>303428</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6634,13 @@
         <v>145842</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H37" s="7">
         <v>161</v>
@@ -6670,13 +6649,13 @@
         <v>181078</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M37" s="7">
         <v>304</v>
@@ -6685,13 +6664,13 @@
         <v>326921</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>116</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,10 +6688,10 @@
         <v>365</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H38" s="7">
         <v>87</v>
@@ -6721,13 +6700,13 @@
         <v>90560</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M38" s="7">
         <v>172</v>
@@ -6736,19 +6715,19 @@
         <v>177485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>359</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7">
         <v>805</v>
@@ -6757,13 +6736,13 @@
         <v>865484</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H39" s="7">
         <v>864</v>
@@ -6772,13 +6751,13 @@
         <v>932794</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M39" s="7">
         <v>1669</v>
@@ -6787,19 +6766,19 @@
         <v>1798278</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7">
         <v>432</v>
@@ -6808,13 +6787,13 @@
         <v>475656</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>348</v>
+        <v>507</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H40" s="7">
         <v>472</v>
@@ -6823,13 +6802,13 @@
         <v>509109</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M40" s="7">
         <v>904</v>
@@ -6838,19 +6817,19 @@
         <v>984765</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7">
         <v>234</v>
@@ -6859,13 +6838,13 @@
         <v>249364</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H41" s="7">
         <v>210</v>
@@ -6874,13 +6853,13 @@
         <v>223817</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>120</v>
+        <v>519</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
       <c r="M41" s="7">
         <v>444</v>
@@ -6889,13 +6868,13 @@
         <v>473181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6889,13 @@
         <v>40109</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>528</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -6925,13 +6904,13 @@
         <v>24881</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="M42" s="7">
         <v>62</v>
@@ -6940,13 +6919,13 @@
         <v>64990</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>531</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>468</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,7 +6981,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7021,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC35CC70-34C0-4431-98EA-6B1546025518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB027C3-8E25-4FD5-B4E6-D373AC3AC777}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7038,7 +7017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7151,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7166,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>418</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7196,13 +7175,13 @@
         <v>2147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7211,13 +7190,13 @@
         <v>8331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>412</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>527</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>534</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7229,10 +7208,10 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7226,13 @@
         <v>7078</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7262,13 +7241,13 @@
         <v>4173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7277,13 +7256,13 @@
         <v>11251</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>539</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>411</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7277,13 @@
         <v>9593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>531</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -7313,13 +7292,13 @@
         <v>20586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>542</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -7328,13 +7307,13 @@
         <v>30178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7328,13 @@
         <v>2984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -7364,13 +7343,13 @@
         <v>13749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>546</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -7379,19 +7358,19 @@
         <v>16733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>549</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>550</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>98</v>
@@ -7400,13 +7379,13 @@
         <v>99286</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
@@ -7415,13 +7394,13 @@
         <v>155471</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M9" s="7">
         <v>241</v>
@@ -7430,19 +7409,19 @@
         <v>254756</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7">
         <v>241</v>
@@ -7451,13 +7430,13 @@
         <v>239324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H10" s="7">
         <v>230</v>
@@ -7466,13 +7445,13 @@
         <v>247306</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>565</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -7481,19 +7460,19 @@
         <v>486630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="7">
         <v>121</v>
@@ -7502,13 +7481,13 @@
         <v>118145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -7517,13 +7496,13 @@
         <v>118481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -7532,13 +7511,13 @@
         <v>236626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7532,13 @@
         <v>12386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>577</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>465</v>
+        <v>567</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -7568,13 +7547,13 @@
         <v>12697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7583,13 +7562,13 @@
         <v>25082</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7693,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7687,13 @@
         <v>37401</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>585</v>
+        <v>315</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>535</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -7723,13 +7702,13 @@
         <v>60428</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -7738,13 +7717,13 @@
         <v>97828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>129</v>
+        <v>578</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7738,13 @@
         <v>63081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7774,13 +7753,13 @@
         <v>54145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>583</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -7789,13 +7768,13 @@
         <v>117227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7789,13 @@
         <v>92351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>597</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>598</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>589</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -7825,13 +7804,13 @@
         <v>168474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -7840,13 +7819,13 @@
         <v>260825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7840,13 @@
         <v>76856</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -7876,13 +7855,13 @@
         <v>107098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>608</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -7891,19 +7870,19 @@
         <v>183954</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>601</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>610</v>
+        <v>371</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7">
         <v>764</v>
@@ -7912,13 +7891,13 @@
         <v>816339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H19" s="7">
         <v>634</v>
@@ -7927,13 +7906,13 @@
         <v>662286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M19" s="7">
         <v>1398</v>
@@ -7942,19 +7921,19 @@
         <v>1478626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7">
         <v>148</v>
@@ -7963,13 +7942,13 @@
         <v>155177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -7978,13 +7957,13 @@
         <v>92759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="M20" s="7">
         <v>237</v>
@@ -7993,19 +7972,19 @@
         <v>247936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -8017,10 +7996,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -8029,13 +8008,13 @@
         <v>23029</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>620</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -8044,13 +8023,13 @@
         <v>35139</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>630</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8044,13 @@
         <v>6643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8080,13 +8059,13 @@
         <v>4622</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -8095,13 +8074,13 @@
         <v>11265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>634</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>635</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +8136,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8175,7 +8154,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8190,7 +8169,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>636</v>
+        <v>18</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8205,7 +8184,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8199,13 @@
         <v>101179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -8235,13 +8214,13 @@
         <v>126475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -8250,13 +8229,13 @@
         <v>227654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8250,13 @@
         <v>77546</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -8286,13 +8265,13 @@
         <v>68748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -8301,13 +8280,13 @@
         <v>146294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>640</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8301,13 @@
         <v>32402</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="H27" s="7">
         <v>42</v>
@@ -8337,13 +8316,13 @@
         <v>41390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>522</v>
+        <v>645</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="M27" s="7">
         <v>71</v>
@@ -8352,13 +8331,13 @@
         <v>73792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8352,13 @@
         <v>7840</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -8388,13 +8367,13 @@
         <v>10585</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>654</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>390</v>
+        <v>655</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -8403,19 +8382,19 @@
         <v>18425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>104</v>
@@ -8424,13 +8403,13 @@
         <v>112832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -8439,13 +8418,13 @@
         <v>65043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -8454,19 +8433,19 @@
         <v>177875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -8475,13 +8454,13 @@
         <v>4009</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>301</v>
+        <v>667</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>317</v>
+        <v>668</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -8490,13 +8469,13 @@
         <v>3853</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>669</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>301</v>
+        <v>667</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>670</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -8505,19 +8484,19 @@
         <v>7862</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>676</v>
+        <v>538</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>677</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -8526,13 +8505,13 @@
         <v>1389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>586</v>
+        <v>355</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8541,13 +8520,13 @@
         <v>2950</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>679</v>
+        <v>158</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -8556,13 +8535,13 @@
         <v>4339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>682</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,13 +8556,13 @@
         <v>2842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>683</v>
+        <v>531</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8592,13 +8571,13 @@
         <v>2051</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8607,13 +8586,13 @@
         <v>4893</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>417</v>
+        <v>322</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>679</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,7 +8696,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8711,13 @@
         <v>140727</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -8747,13 +8726,13 @@
         <v>195234</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -8762,13 +8741,13 @@
         <v>335960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>474</v>
+        <v>684</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>692</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8762,13 @@
         <v>147705</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>687</v>
       </c>
       <c r="H36" s="7">
         <v>122</v>
@@ -8798,13 +8777,13 @@
         <v>127066</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>110</v>
+        <v>472</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>451</v>
+        <v>688</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>695</v>
+        <v>372</v>
       </c>
       <c r="M36" s="7">
         <v>257</v>
@@ -8813,13 +8792,13 @@
         <v>274771</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>373</v>
+        <v>689</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8834,13 +8813,13 @@
         <v>134346</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>700</v>
+        <v>126</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
@@ -8849,13 +8828,13 @@
         <v>230450</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="M37" s="7">
         <v>348</v>
@@ -8864,13 +8843,13 @@
         <v>364795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8864,13 @@
         <v>87679</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H38" s="7">
         <v>127</v>
@@ -8900,13 +8879,13 @@
         <v>131432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>249</v>
+        <v>701</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>708</v>
+        <v>601</v>
       </c>
       <c r="M38" s="7">
         <v>209</v>
@@ -8915,19 +8894,19 @@
         <v>219111</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>663</v>
+        <v>583</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>710</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7">
         <v>966</v>
@@ -8936,13 +8915,13 @@
         <v>1028456</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="H39" s="7">
         <v>839</v>
@@ -8951,13 +8930,13 @@
         <v>882800</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="M39" s="7">
         <v>1805</v>
@@ -8966,19 +8945,19 @@
         <v>1911256</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>718</v>
+        <v>551</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7">
         <v>393</v>
@@ -8987,13 +8966,13 @@
         <v>398510</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>650</v>
+        <v>712</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="H40" s="7">
         <v>323</v>
@@ -9002,13 +8981,13 @@
         <v>343918</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="M40" s="7">
         <v>716</v>
@@ -9017,19 +8996,19 @@
         <v>742428</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>65</v>
+        <v>719</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7">
         <v>133</v>
@@ -9038,13 +9017,13 @@
         <v>131644</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>128</v>
+        <v>702</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="H41" s="7">
         <v>135</v>
@@ -9053,13 +9032,13 @@
         <v>144460</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M41" s="7">
         <v>268</v>
@@ -9068,13 +9047,13 @@
         <v>276104</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>238</v>
+        <v>725</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>221</v>
+        <v>726</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9089,13 +9068,13 @@
         <v>21871</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>539</v>
+        <v>197</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>732</v>
+        <v>465</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H42" s="7">
         <v>18</v>
@@ -9104,13 +9083,13 @@
         <v>19370</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>34</v>
+        <v>730</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>735</v>
+        <v>524</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
@@ -9119,13 +9098,13 @@
         <v>41241</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>736</v>
+        <v>623</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>732</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>737</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9181,7 +9160,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A2664D-2379-466C-9504-010C82827EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C321AC-1948-44E5-9A0C-2E173CC353F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5544F69D-059F-4735-BBBA-43377D4169DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BA8B12D-A1C9-441B-A975-CF490DD280BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="724">
   <si>
     <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -94,2143 +94,2122 @@
     <t>1,36%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Estudios universitarios de grado medio</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Estudios de FP II</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>Estudios de FP I</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>EGB completa (8º) o similar (bachiller elemental), ESO y Estudios Secundarios (BUP,B.Superior)</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>Estudios primarios (hasta 5º EGB, ingreso)</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>No ha estudiado pero sabe leer y escribir</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>No sabe leer o escribir</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2012 (Tasa respuesta: 62,89%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2016 (Tasa respuesta: 60,21%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>Estudios universitarios de grado medio</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Estudios de FP II</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Estudios de FP I</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>EGB completa (8º) o similar (bachiller elemental), ESO y Estudios Secundarios (BUP,B.Superior)</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>Estudios primarios (hasta 5º EGB, ingreso)</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>No ha estudiado pero sabe leer y escribir</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>No sabe leer o escribir</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2012 (Tasa respuesta: 62,89%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado por su pareja. en 2015 (Tasa respuesta: 60,21%)</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>0,68%</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF712DD8-4E44-4951-9E71-DD65EEAE723A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4FC20-BD0C-47FE-8AD9-9F1400D4F211}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2973,7 +2952,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>48</v>
@@ -3407,16 +3386,16 @@
         <v>96</v>
       </c>
       <c r="N16" s="7">
-        <v>97039</v>
+        <v>97038</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3410,13 @@
         <v>85587</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -3446,13 +3425,13 @@
         <v>118728</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>199</v>
@@ -3461,13 +3440,13 @@
         <v>204315</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3461,13 @@
         <v>79072</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -3497,10 +3476,10 @@
         <v>53099</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>130</v>
@@ -3512,13 +3491,13 @@
         <v>132171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3512,13 @@
         <v>606509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>579</v>
@@ -3548,13 +3527,13 @@
         <v>606607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>1162</v>
@@ -3563,13 +3542,13 @@
         <v>1213117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3563,13 @@
         <v>152844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -3599,13 +3578,13 @@
         <v>100642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -3614,13 +3593,13 @@
         <v>253486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3614,13 @@
         <v>19616</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -3650,13 +3629,13 @@
         <v>18395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3665,13 +3644,13 @@
         <v>38011</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3665,13 @@
         <v>6123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3701,13 +3680,13 @@
         <v>3994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -3716,13 +3695,13 @@
         <v>10117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3743,7 @@
         <v>1968</v>
       </c>
       <c r="N23" s="7">
-        <v>2040205</v>
+        <v>2040204</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>95</v>
@@ -3778,7 +3757,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3796,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3805,13 +3784,13 @@
         <v>1151</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3820,13 +3799,13 @@
         <v>1151</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3820,13 @@
         <v>111284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -3856,13 +3835,13 @@
         <v>104787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>194</v>
@@ -3871,13 +3850,13 @@
         <v>216071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3871,13 @@
         <v>92754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3907,13 +3886,13 @@
         <v>52186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>142</v>
@@ -3922,13 +3901,13 @@
         <v>144941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3922,13 @@
         <v>35624</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -3958,13 +3937,13 @@
         <v>29504</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -3973,13 +3952,13 @@
         <v>65128</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3973,13 @@
         <v>9140</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4009,13 +3988,13 @@
         <v>9289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -4024,13 +4003,13 @@
         <v>18429</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,16 +4021,16 @@
         <v>92</v>
       </c>
       <c r="D29" s="7">
-        <v>94680</v>
+        <v>94681</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>73</v>
@@ -4114,10 +4093,10 @@
         <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -4126,13 +4105,13 @@
         <v>26608</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4126,13 @@
         <v>1454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -4162,13 +4141,13 @@
         <v>2774</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4177,13 +4156,13 @@
         <v>4228</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4177,7 @@
         <v>909</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
@@ -4228,13 +4207,13 @@
         <v>909</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4225,7 @@
         <v>345</v>
       </c>
       <c r="D33" s="7">
-        <v>363440</v>
+        <v>363441</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>95</v>
@@ -4308,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4317,13 +4296,13 @@
         <v>1151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4332,13 +4311,13 @@
         <v>1151</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4332,13 @@
         <v>162685</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -4368,13 +4347,13 @@
         <v>163447</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>297</v>
@@ -4383,13 +4362,13 @@
         <v>326132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,10 +4383,10 @@
         <v>144866</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>243</v>
@@ -4419,7 +4398,7 @@
         <v>112033</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>244</v>
@@ -4458,10 +4437,10 @@
         <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>166</v>
@@ -4470,13 +4449,13 @@
         <v>166172</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>296</v>
@@ -4485,13 +4464,13 @@
         <v>301541</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4485,13 @@
         <v>102922</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7">
         <v>75</v>
@@ -4521,13 +4500,13 @@
         <v>75300</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>175</v>
@@ -4536,13 +4515,13 @@
         <v>178222</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4536,13 @@
         <v>809933</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>806</v>
@@ -4572,13 +4551,13 @@
         <v>840039</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M39" s="7">
         <v>1588</v>
@@ -4587,13 +4566,13 @@
         <v>1649972</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4587,13 @@
         <v>512343</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>488</v>
@@ -4623,13 +4602,13 @@
         <v>498033</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>1002</v>
@@ -4638,13 +4617,13 @@
         <v>1010376</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4638,13 @@
         <v>232939</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>226</v>
@@ -4674,13 +4653,13 @@
         <v>228942</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="M41" s="7">
         <v>467</v>
@@ -4689,13 +4668,13 @@
         <v>461881</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4689,13 @@
         <v>38772</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -4725,13 +4704,13 @@
         <v>26755</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>66</v>
@@ -4740,13 +4719,13 @@
         <v>65527</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4781,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4821,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7368EB12-B8C2-4F23-9E64-925F9927859F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93B03DD-EF94-4159-9AF9-E892170F4CC8}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4838,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4951,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4981,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4975,13 @@
         <v>1896</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5011,13 +4990,13 @@
         <v>8995</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5026,13 +5005,13 @@
         <v>10891</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5026,13 @@
         <v>7205</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5062,13 +5041,13 @@
         <v>9181</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5077,13 +5056,13 @@
         <v>16385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5077,13 @@
         <v>11272</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5113,13 +5092,13 @@
         <v>30025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5128,13 +5107,13 @@
         <v>41296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5128,13 @@
         <v>10148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5164,13 +5143,13 @@
         <v>14220</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5179,13 +5158,13 @@
         <v>24368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5179,13 @@
         <v>101425</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
         <v>172</v>
@@ -5215,13 +5194,13 @@
         <v>182142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -5230,13 +5209,13 @@
         <v>283568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5230,13 @@
         <v>290189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>346</v>
@@ -5266,13 +5245,13 @@
         <v>368524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>615</v>
@@ -5281,13 +5260,13 @@
         <v>658713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5281,13 @@
         <v>218484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>195</v>
@@ -5317,13 +5296,13 @@
         <v>208584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>400</v>
@@ -5332,13 +5311,13 @@
         <v>427068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5332,13 @@
         <v>33909</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5368,13 +5347,13 @@
         <v>19011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -5386,10 +5365,10 @@
         <v>92</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5442,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5493,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5487,13 @@
         <v>42187</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H15" s="7">
         <v>44</v>
@@ -5526,10 +5505,10 @@
         <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M15" s="7">
         <v>83</v>
@@ -5538,13 +5517,13 @@
         <v>92288</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5538,13 @@
         <v>81128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5574,13 +5553,13 @@
         <v>55645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -5589,13 +5568,13 @@
         <v>136773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5589,13 @@
         <v>112639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -5625,13 +5604,13 @@
         <v>113687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>215</v>
@@ -5640,13 +5619,13 @@
         <v>226326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5640,13 @@
         <v>67581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -5676,13 +5655,13 @@
         <v>65633</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>130</v>
@@ -5691,13 +5670,13 @@
         <v>133214</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5691,13 @@
         <v>689810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>626</v>
@@ -5727,13 +5706,13 @@
         <v>677241</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>1273</v>
@@ -5742,13 +5721,13 @@
         <v>1367051</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5742,13 @@
         <v>173012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -5778,13 +5757,13 @@
         <v>131229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
@@ -5793,13 +5772,13 @@
         <v>304240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,10 +5796,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5829,13 +5808,13 @@
         <v>14282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>227</v>
+        <v>401</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -5844,13 +5823,13 @@
         <v>45162</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5844,13 @@
         <v>6200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5880,13 +5859,13 @@
         <v>3918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5895,13 +5874,13 @@
         <v>10118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5936,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5975,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5990,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6020,13 +5999,13 @@
         <v>90457</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -6035,13 +6014,13 @@
         <v>103308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -6050,13 +6029,13 @@
         <v>193765</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6050,13 @@
         <v>94483</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6086,13 +6065,13 @@
         <v>55787</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -6101,13 +6080,13 @@
         <v>150269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6101,13 @@
         <v>21932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -6137,13 +6116,13 @@
         <v>37366</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -6152,13 +6131,13 @@
         <v>59298</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6152,13 @@
         <v>9197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6188,13 +6167,13 @@
         <v>10707</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -6206,10 +6185,10 @@
         <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6203,13 @@
         <v>74249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -6239,13 +6218,13 @@
         <v>73411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -6254,13 +6233,13 @@
         <v>147659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6254,13 @@
         <v>12456</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>221</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -6290,13 +6269,13 @@
         <v>9356</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>42</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -6305,13 +6284,13 @@
         <v>21811</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6341,13 +6320,13 @@
         <v>951</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>463</v>
+        <v>29</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6356,13 +6335,13 @@
         <v>951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,7 +6362,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6392,13 +6371,13 @@
         <v>1952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>458</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6407,13 +6386,13 @@
         <v>1952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>467</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6502,7 +6481,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6517,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6511,13 @@
         <v>134540</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H35" s="7">
         <v>142</v>
@@ -6547,13 +6526,13 @@
         <v>162403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>472</v>
+        <v>111</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>463</v>
       </c>
       <c r="M35" s="7">
         <v>261</v>
@@ -6562,13 +6541,13 @@
         <v>296944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>474</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6562,13 @@
         <v>182816</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>466</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H36" s="7">
         <v>108</v>
@@ -6598,13 +6577,13 @@
         <v>120612</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M36" s="7">
         <v>273</v>
@@ -6613,13 +6592,13 @@
         <v>303428</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6613,13 @@
         <v>145842</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7">
         <v>161</v>
@@ -6649,13 +6628,13 @@
         <v>181078</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M37" s="7">
         <v>304</v>
@@ -6664,13 +6643,13 @@
         <v>326921</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6664,13 @@
         <v>86925</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>492</v>
+        <v>362</v>
       </c>
       <c r="H38" s="7">
         <v>87</v>
@@ -6700,13 +6679,13 @@
         <v>90560</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="M38" s="7">
         <v>172</v>
@@ -6715,13 +6694,13 @@
         <v>177485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6715,13 @@
         <v>865484</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H39" s="7">
         <v>864</v>
@@ -6751,13 +6730,13 @@
         <v>932794</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M39" s="7">
         <v>1669</v>
@@ -6766,13 +6745,13 @@
         <v>1798278</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6766,13 @@
         <v>475656</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H40" s="7">
         <v>472</v>
@@ -6802,13 +6781,13 @@
         <v>509109</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M40" s="7">
         <v>904</v>
@@ -6817,13 +6796,13 @@
         <v>984765</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6817,13 @@
         <v>249364</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
         <v>210</v>
@@ -6853,13 +6832,13 @@
         <v>223817</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="M41" s="7">
         <v>444</v>
@@ -6868,13 +6847,13 @@
         <v>473181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6868,13 @@
         <v>40109</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>514</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -6904,13 +6883,13 @@
         <v>24881</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="M42" s="7">
         <v>62</v>
@@ -6919,13 +6898,13 @@
         <v>64990</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +6960,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7000,7 +6979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB027C3-8E25-4FD5-B4E6-D373AC3AC777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCBBA48-603D-4D6F-9FAC-74C74DF16511}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7017,7 +6996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7130,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7175,13 +7154,13 @@
         <v>2147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7190,13 +7169,13 @@
         <v>8331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>522</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7208,10 +7187,10 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7205,13 @@
         <v>7078</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>529</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7241,13 +7220,13 @@
         <v>4173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>530</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -7256,13 +7235,13 @@
         <v>11251</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>411</v>
+        <v>524</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7256,13 @@
         <v>9593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -7292,13 +7271,13 @@
         <v>20586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>528</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -7307,13 +7286,13 @@
         <v>30178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>530</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7307,13 @@
         <v>2984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -7343,13 +7322,13 @@
         <v>13749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>534</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -7358,13 +7337,13 @@
         <v>16733</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7358,13 @@
         <v>99286</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
@@ -7394,13 +7373,13 @@
         <v>155471</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M9" s="7">
         <v>241</v>
@@ -7409,13 +7388,13 @@
         <v>254756</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7409,13 @@
         <v>239324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H10" s="7">
         <v>230</v>
@@ -7445,13 +7424,13 @@
         <v>247306</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>551</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -7460,13 +7439,13 @@
         <v>486630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7460,13 @@
         <v>118145</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -7496,13 +7475,13 @@
         <v>118481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -7511,13 +7490,13 @@
         <v>236626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,10 +7514,10 @@
         <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -7547,13 +7526,13 @@
         <v>12697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7562,13 +7541,13 @@
         <v>25082</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>572</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7657,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7672,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7666,13 @@
         <v>37401</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>569</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>575</v>
+        <v>221</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -7702,13 +7681,13 @@
         <v>60428</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>469</v>
+        <v>571</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>577</v>
+        <v>473</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -7717,13 +7696,13 @@
         <v>97828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7717,13 @@
         <v>63081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -7753,13 +7732,13 @@
         <v>54145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -7768,13 +7747,13 @@
         <v>117227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>587</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7768,13 @@
         <v>92351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>582</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -7804,13 +7783,13 @@
         <v>168474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>590</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -7819,13 +7798,13 @@
         <v>260825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7819,13 @@
         <v>76856</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>596</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>597</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>598</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -7855,13 +7834,13 @@
         <v>107098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>590</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>600</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -7870,13 +7849,13 @@
         <v>183954</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7870,13 @@
         <v>816339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>634</v>
@@ -7906,13 +7885,13 @@
         <v>662286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="M19" s="7">
         <v>1398</v>
@@ -7921,13 +7900,13 @@
         <v>1478626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7921,13 @@
         <v>155177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -7960,10 +7939,10 @@
         <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>237</v>
@@ -7972,13 +7951,13 @@
         <v>247936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,10 +7975,10 @@
         <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -8008,13 +7987,13 @@
         <v>23029</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -8023,13 +8002,13 @@
         <v>35139</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>528</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>611</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8023,13 @@
         <v>6643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>622</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8059,13 +8038,13 @@
         <v>4622</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>613</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -8074,13 +8053,13 @@
         <v>11265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>615</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,7 +8115,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8154,7 +8133,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>529</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8169,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>18</v>
+        <v>618</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8184,7 +8163,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8178,13 @@
         <v>101179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -8214,13 +8193,13 @@
         <v>126475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -8229,13 +8208,13 @@
         <v>227654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8229,13 @@
         <v>77546</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -8265,13 +8244,13 @@
         <v>68748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -8280,13 +8259,13 @@
         <v>146294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>639</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8280,13 @@
         <v>32402</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H27" s="7">
         <v>42</v>
@@ -8316,13 +8295,13 @@
         <v>41390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="M27" s="7">
         <v>71</v>
@@ -8331,13 +8310,13 @@
         <v>73792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8331,13 @@
         <v>7840</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>651</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -8367,13 +8346,13 @@
         <v>10585</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -8382,13 +8361,13 @@
         <v>18425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>649</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8382,13 @@
         <v>112832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -8418,13 +8397,13 @@
         <v>65043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -8433,13 +8412,13 @@
         <v>177875</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8433,13 @@
         <v>4009</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>667</v>
+        <v>300</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>319</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -8469,13 +8448,13 @@
         <v>3853</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>667</v>
+        <v>456</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>670</v>
+        <v>48</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -8484,13 +8463,13 @@
         <v>7862</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>538</v>
+        <v>53</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8505,13 +8484,13 @@
         <v>1389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>355</v>
+        <v>663</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8520,13 +8499,13 @@
         <v>2950</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -8535,13 +8514,13 @@
         <v>4339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>463</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8535,13 @@
         <v>2842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>531</v>
+        <v>666</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>674</v>
+        <v>312</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8571,13 +8550,13 @@
         <v>2051</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -8586,13 +8565,13 @@
         <v>4893</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,7 +8675,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8711,13 +8690,13 @@
         <v>140727</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -8726,13 +8705,13 @@
         <v>195234</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>682</v>
+        <v>147</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>683</v>
+        <v>284</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -8741,13 +8720,13 @@
         <v>335960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8762,13 +8741,13 @@
         <v>147705</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H36" s="7">
         <v>122</v>
@@ -8777,13 +8756,13 @@
         <v>127066</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>688</v>
+        <v>367</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>372</v>
+        <v>679</v>
       </c>
       <c r="M36" s="7">
         <v>257</v>
@@ -8792,13 +8771,13 @@
         <v>274771</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8813,13 +8792,13 @@
         <v>134346</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>693</v>
+        <v>529</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
@@ -8828,13 +8807,13 @@
         <v>230450</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="M37" s="7">
         <v>348</v>
@@ -8843,13 +8822,13 @@
         <v>364795</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>698</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8864,13 +8843,13 @@
         <v>87679</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H38" s="7">
         <v>127</v>
@@ -8882,10 +8861,10 @@
         <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>601</v>
+        <v>691</v>
       </c>
       <c r="M38" s="7">
         <v>209</v>
@@ -8894,13 +8873,13 @@
         <v>219111</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>364</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8915,13 +8894,13 @@
         <v>1028456</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H39" s="7">
         <v>839</v>
@@ -8930,13 +8909,13 @@
         <v>882800</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="M39" s="7">
         <v>1805</v>
@@ -8945,13 +8924,13 @@
         <v>1911256</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>551</v>
+        <v>702</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8945,13 @@
         <v>398510</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H40" s="7">
         <v>323</v>
@@ -8981,13 +8960,13 @@
         <v>343918</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="M40" s="7">
         <v>716</v>
@@ -8996,13 +8975,13 @@
         <v>742428</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9017,13 +8996,13 @@
         <v>131644</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="H41" s="7">
         <v>135</v>
@@ -9032,13 +9011,13 @@
         <v>144460</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="M41" s="7">
         <v>268</v>
@@ -9047,13 +9026,13 @@
         <v>276104</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>725</v>
+        <v>479</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9068,13 +9047,13 @@
         <v>21871</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>465</v>
+        <v>719</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="H42" s="7">
         <v>18</v>
@@ -9083,13 +9062,13 @@
         <v>19370</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>730</v>
+        <v>524</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
@@ -9098,13 +9077,13 @@
         <v>41241</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>227</v>
+        <v>723</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,7 +9139,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
